--- a/src/excel/ScheduleSupportingData- Vaccine Group to Antigen Map-508.xlsx
+++ b/src/excel/ScheduleSupportingData- Vaccine Group to Antigen Map-508.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="28324"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.52 - 508\Excel\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\tmp\Play CDS XML\Version 4.61 - 508\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B66ACC7E-2B52-4F44-9600-BE20DDD850D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E069F400-D551-4EEC-BD46-8707636DAD6D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1584" yWindow="804" windowWidth="20736" windowHeight="10752" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Vaccine Group to Antigen Map" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="197" uniqueCount="59">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="212" uniqueCount="61">
   <si>
     <t>Vaccine Group</t>
   </si>
@@ -175,9 +175,6 @@
     <t>HepA | HepB</t>
   </si>
   <si>
-    <t>Other CDSi resources used HepA or HepB.  All resources are being updated to reflect the abbreviaions used by ACIP for consistency purposes.</t>
-  </si>
-  <si>
     <t>Cholera</t>
   </si>
   <si>
@@ -209,6 +206,15 @@
   </si>
   <si>
     <t>Publication Date: 01/02/2024</t>
+  </si>
+  <si>
+    <t>Chikungunya</t>
+  </si>
+  <si>
+    <t>Other CDSi resources used HepA or HepB.  All resources are being updated to reflect the abbreviations used by ACIP for consistency purposes.</t>
+  </si>
+  <si>
+    <t>Publication Date: 02/06/2025</t>
   </si>
 </sst>
 </file>
@@ -389,7 +395,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -437,6 +443,9 @@
     </xf>
     <xf numFmtId="2" fontId="2" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -747,7 +756,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:C30"/>
+  <dimension ref="A1:C31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -766,38 +775,38 @@
       <c r="C1" s="3"/>
     </row>
     <row r="2" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
-        <v>48</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>48</v>
+      <c r="A2" s="16" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" s="16" t="s">
+        <v>58</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>6</v>
+        <v>52</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>7</v>
+        <v>52</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -806,7 +815,7 @@
         <v>6</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -815,97 +824,97 @@
         <v>6</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>52</v>
+        <v>6</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>10</v>
+        <v>43</v>
       </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="1" t="s">
+      <c r="B15" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="14" t="s">
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="14" t="s">
         <v>35</v>
       </c>
-      <c r="B15" s="14" t="s">
+      <c r="B16" s="14" t="s">
         <v>35</v>
-      </c>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>31</v>
       </c>
       <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="1" t="s">
-        <v>2</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>3</v>
+        <v>31</v>
       </c>
       <c r="C17" s="3"/>
     </row>
@@ -914,7 +923,7 @@
         <v>2</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C18" s="3"/>
     </row>
@@ -923,111 +932,120 @@
         <v>2</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>54</v>
+        <v>2</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>54</v>
+        <v>5</v>
       </c>
       <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>26</v>
+        <v>53</v>
       </c>
       <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>15</v>
+        <v>26</v>
       </c>
       <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>32</v>
+        <v>15</v>
       </c>
       <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>55</v>
+        <v>16</v>
       </c>
       <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="C26" s="3"/>
     </row>
     <row r="27" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>33</v>
+        <v>56</v>
       </c>
       <c r="C27" s="3"/>
     </row>
     <row r="28" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>17</v>
+        <v>33</v>
       </c>
       <c r="C28" s="3"/>
     </row>
     <row r="29" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="1" t="s">
-        <v>34</v>
+        <v>17</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>34</v>
-      </c>
+        <v>17</v>
+      </c>
+      <c r="C29" s="3"/>
     </row>
     <row r="30" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="B30" s="1" t="s">
+      <c r="B31" s="1" t="s">
         <v>27</v>
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C30">
-    <sortCondition ref="A2:A30"/>
-    <sortCondition ref="B2:B30"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C31">
+    <sortCondition ref="A3:A31"/>
+    <sortCondition ref="B3:B31"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1036,7 +1054,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:F42"/>
+  <dimension ref="A1:F46"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1053,10 +1071,10 @@
         <v>18</v>
       </c>
       <c r="B1" s="15">
-        <v>4.5199999999999996</v>
+        <v>4.6100000000000003</v>
       </c>
       <c r="C1" s="15" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.25">
@@ -1093,10 +1111,10 @@
         <v>24</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1104,10 +1122,10 @@
         <v>18</v>
       </c>
       <c r="B5" s="15">
-        <v>4.45</v>
+        <v>4.5199999999999996</v>
       </c>
       <c r="C5" s="15" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.25">
@@ -1144,10 +1162,10 @@
         <v>24</v>
       </c>
       <c r="E7" s="9" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1155,7 +1173,10 @@
         <v>18</v>
       </c>
       <c r="B9" s="15">
-        <v>4.3</v>
+        <v>4.45</v>
+      </c>
+      <c r="C9" s="15" t="s">
+        <v>55</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.25">
@@ -1185,25 +1206,25 @@
       <c r="B11" s="8">
         <v>1</v>
       </c>
-      <c r="C11" s="8" t="s">
+      <c r="C11" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D11" s="8" t="s">
+      <c r="D11" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E11" s="8" t="s">
+      <c r="E11" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="F11" s="8" t="s">
-        <v>51</v>
+      <c r="F11" s="9" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B13" s="5">
-        <v>4.2300000000000004</v>
+      <c r="B13" s="15">
+        <v>4.3</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.25">
@@ -1243,7 +1264,7 @@
         <v>53</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="17" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1251,7 +1272,7 @@
         <v>18</v>
       </c>
       <c r="B17" s="5">
-        <v>4.8</v>
+        <v>4.2300000000000004</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
@@ -1281,17 +1302,17 @@
       <c r="B19" s="8">
         <v>1</v>
       </c>
-      <c r="C19" s="9" t="s">
+      <c r="C19" s="8" t="s">
         <v>37</v>
       </c>
-      <c r="D19" s="9" t="s">
+      <c r="D19" s="8" t="s">
         <v>24</v>
       </c>
-      <c r="E19" s="9" t="s">
+      <c r="E19" s="8" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="9" t="s">
-        <v>51</v>
+      <c r="F19" s="8" t="s">
+        <v>50</v>
       </c>
     </row>
     <row r="21" spans="1:6" ht="15" x14ac:dyDescent="0.25">
@@ -1299,7 +1320,7 @@
         <v>18</v>
       </c>
       <c r="B21" s="5">
-        <v>4.5999999999999996</v>
+        <v>4.8</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
@@ -1336,18 +1357,18 @@
         <v>24</v>
       </c>
       <c r="E23" s="9" t="s">
+        <v>51</v>
+      </c>
+      <c r="F23" s="9" t="s">
         <v>50</v>
-      </c>
-      <c r="F23" s="9" t="s">
-        <v>51</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="15" x14ac:dyDescent="0.25">
       <c r="A25" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B25" s="12">
-        <v>3.4</v>
+      <c r="B25" s="5">
+        <v>4.5999999999999996</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
@@ -1371,7 +1392,7 @@
       </c>
     </row>
     <row r="27" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A27" s="13" t="s">
+      <c r="A27" s="11" t="s">
         <v>19</v>
       </c>
       <c r="B27" s="8">
@@ -1384,213 +1405,261 @@
         <v>24</v>
       </c>
       <c r="E27" s="9" t="s">
+        <v>49</v>
+      </c>
+      <c r="F27" s="9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B29" s="12">
+        <v>3.4</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B30" s="6" t="s">
+        <v>20</v>
+      </c>
+      <c r="C30" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="D30" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="E30" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F30" s="7" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A31" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B31" s="8">
+        <v>1</v>
+      </c>
+      <c r="C31" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D31" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E31" s="9" t="s">
+        <v>47</v>
+      </c>
+      <c r="F31" s="9" t="s">
         <v>48</v>
       </c>
-      <c r="F27" s="9" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:6" ht="60" x14ac:dyDescent="0.25">
-      <c r="A28" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B28" s="8">
+    </row>
+    <row r="32" spans="1:6" ht="60" x14ac:dyDescent="0.25">
+      <c r="A32" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B32" s="8">
         <v>2</v>
       </c>
-      <c r="C28" s="9" t="s">
+      <c r="C32" s="9" t="s">
         <v>44</v>
       </c>
-      <c r="D28" s="9" t="s">
+      <c r="D32" s="9" t="s">
         <v>45</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E32" s="9" t="s">
         <v>46</v>
       </c>
-      <c r="F28" s="9" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="30" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A30" s="4" t="s">
+      <c r="F32" s="9" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A34" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B30" s="12">
+      <c r="B34" s="12">
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A31" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B31" s="6" t="s">
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B35" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C31" s="7" t="s">
+      <c r="C35" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D31" s="7" t="s">
+      <c r="D35" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F31" s="7" t="s">
+      <c r="E35" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F35" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A32" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B32" s="8">
+    <row r="36" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A36" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B36" s="8">
         <v>1</v>
       </c>
-      <c r="C32" s="9" t="s">
+      <c r="C36" s="9" t="s">
         <v>36</v>
       </c>
-      <c r="D32" s="9" t="s">
+      <c r="D36" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E32" s="9" t="s">
+      <c r="E36" s="9" t="s">
         <v>39</v>
       </c>
-      <c r="F32" s="9" t="s">
+      <c r="F36" s="9" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="33" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A33" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B33" s="8">
+    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A37" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B37" s="8">
         <v>2</v>
       </c>
-      <c r="C33" s="9" t="s">
+      <c r="C37" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D33" s="9" t="s">
+      <c r="D37" s="9" t="s">
         <v>13</v>
       </c>
-      <c r="E33" s="9" t="s">
+      <c r="E37" s="9" t="s">
         <v>35</v>
       </c>
-      <c r="F33" s="9" t="s">
+      <c r="F37" s="9" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="35" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A35" s="4" t="s">
+    <row r="39" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A39" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B35" s="12">
+      <c r="B39" s="12">
         <v>2</v>
       </c>
     </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A36" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B36" s="6" t="s">
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B40" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C36" s="7" t="s">
+      <c r="C40" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D36" s="7" t="s">
+      <c r="D40" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F36" s="7" t="s">
+      <c r="E40" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="37" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A37" s="13" t="s">
-        <v>19</v>
-      </c>
-      <c r="B37" s="8">
+    <row r="41" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A41" s="13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B41" s="8">
         <v>1</v>
       </c>
-      <c r="C37" s="9" t="s">
+      <c r="C41" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="D37" s="9" t="s">
+      <c r="D41" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E37" s="9" t="s">
+      <c r="E41" s="9" t="s">
         <v>27</v>
       </c>
-      <c r="F37" s="9" t="s">
+      <c r="F41" s="9" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="38" spans="1:6" ht="45" x14ac:dyDescent="0.25">
-      <c r="A38" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B38" s="8">
+    <row r="42" spans="1:6" ht="45" x14ac:dyDescent="0.25">
+      <c r="A42" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B42" s="8">
         <v>2</v>
       </c>
-      <c r="C38" s="9" t="s">
+      <c r="C42" s="9" t="s">
         <v>38</v>
       </c>
-      <c r="D38" s="9" t="s">
+      <c r="D42" s="9" t="s">
         <v>14</v>
       </c>
-      <c r="E38" s="9" t="s">
+      <c r="E42" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="F38" s="9" t="s">
+      <c r="F42" s="9" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="40" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A40" s="4" t="s">
+    <row r="44" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A44" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B40" s="5">
+      <c r="B44" s="5">
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A41" s="10" t="s">
-        <v>19</v>
-      </c>
-      <c r="B41" s="6" t="s">
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="B45" s="6" t="s">
         <v>20</v>
       </c>
-      <c r="C41" s="7" t="s">
+      <c r="C45" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="D41" s="7" t="s">
+      <c r="D45" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F41" s="7" t="s">
+      <c r="E45" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="F45" s="7" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="42" spans="1:6" ht="15" x14ac:dyDescent="0.25">
-      <c r="A42" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B42" s="8">
+    <row r="46" spans="1:6" ht="15" x14ac:dyDescent="0.25">
+      <c r="A46" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B46" s="8">
         <v>1</v>
       </c>
-      <c r="C42" s="9" t="s">
+      <c r="C46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="D42" s="9" t="s">
+      <c r="D46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="E42" s="9" t="s">
+      <c r="E46" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="F42" s="9" t="s">
+      <c r="F46" s="9" t="s">
         <v>25</v>
       </c>
     </row>
